--- a/FantaSoccer/MyModule/Test_MultiMetodo_SerieA_with_odds.xlsx
+++ b/FantaSoccer/MyModule/Test_MultiMetodo_SerieA_with_odds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="45">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Trasferta</t>
+  </si>
+  <si>
+    <t>Differenza</t>
   </si>
   <si>
     <t>Cannes</t>
@@ -118,6 +121,9 @@
     <t>VERONA</t>
   </si>
   <si>
+    <t>PARMA</t>
+  </si>
+  <si>
     <t>ATALANTA</t>
   </si>
   <si>
@@ -127,25 +133,22 @@
     <t>CAGLIARI</t>
   </si>
   <si>
-    <t>MILAN</t>
+    <t>GENOA</t>
   </si>
   <si>
-    <t>GENOA</t>
+    <t>LAZIO</t>
   </si>
   <si>
     <t>SASSUOLO</t>
   </si>
   <si>
-    <t>BENEVENTO</t>
-  </si>
-  <si>
-    <t>LAZIO</t>
+    <t>MILAN</t>
   </si>
   <si>
     <t>TORINO</t>
   </si>
   <si>
-    <t>PARMA</t>
+    <t>BENEVENTO</t>
   </si>
 </sst>
 </file>
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +585,11 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -591,22 +597,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1303375050162563</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -614,14 +620,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="K2">
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -630,34 +636,37 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>6.5</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5.25</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.4</v>
-      </c>
-      <c r="U2">
-        <v>5.25</v>
       </c>
       <c r="V2">
         <v>5.25</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -665,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-0.4921443267170087</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -688,8 +697,8 @@
       <c r="J3">
         <v>-1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="K3">
+        <v>-1</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -704,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3">
+        <v>-1</v>
+      </c>
+      <c r="S3">
         <v>2.5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3.5</v>
-      </c>
-      <c r="T3">
-        <v>2.7</v>
       </c>
       <c r="U3">
         <v>2.7</v>
@@ -722,16 +731,19 @@
         <v>2.7</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>1.928571428571429</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,13 +751,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-1.087687883022113</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -762,8 +774,8 @@
       <c r="J4">
         <v>-1</v>
       </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4">
+        <v>-1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -778,16 +790,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4">
         <v>4.75</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4</v>
-      </c>
-      <c r="T4">
-        <v>1.66</v>
       </c>
       <c r="U4">
         <v>1.66</v>
@@ -796,16 +808,19 @@
         <v>1.66</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>1.245</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -813,13 +828,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.3269746321935019</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -836,7 +851,7 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="M5">
@@ -855,31 +870,34 @@
         <v>1</v>
       </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>1.28</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>5.5</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>10</v>
-      </c>
-      <c r="U5">
-        <v>1.28</v>
       </c>
       <c r="V5">
         <v>1.28</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>1.047272727272727</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -887,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5703050691763458</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -905,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -926,34 +944,37 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
         <v>1.5</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4.75</v>
-      </c>
-      <c r="T6">
-        <v>5.5</v>
       </c>
       <c r="U6">
         <v>5.5</v>
       </c>
       <c r="V6">
+        <v>5.5</v>
+      </c>
+      <c r="W6">
         <v>1.5</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>4.342105263157895</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -961,37 +982,37 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.08764830680545543</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1000,34 +1021,37 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>4.33</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1.8</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3.75</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>1.32</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1035,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-0.3140420662923535</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1053,13 +1077,13 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1074,34 +1098,37 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>1.33</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>5.75</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>8</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.33</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>8</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>1.098695652173913</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,13 +1136,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-0.587373694454608</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -1132,8 +1159,8 @@
       <c r="J9">
         <v>-1</v>
       </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9">
+        <v>-1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1148,16 +1175,16 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9">
         <v>2.3</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>3.5</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -1166,16 +1193,19 @@
         <v>3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>2.142857142857143</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1183,13 +1213,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.3846344079859429</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1201,12 +1231,12 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>1</v>
       </c>
       <c r="M10">
@@ -1219,37 +1249,40 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>1.5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4.75</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>5.75</v>
-      </c>
-      <c r="U10">
-        <v>1.5</v>
       </c>
       <c r="V10">
         <v>1.5</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>1.184210526315789</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1257,13 +1290,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-0.3027949996075483</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -1272,7 +1305,7 @@
         <v>-1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1280,8 +1313,8 @@
       <c r="J11">
         <v>-1</v>
       </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="K11">
+        <v>-1</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1290,22 +1323,22 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
         <v>3.2</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3.8</v>
-      </c>
-      <c r="T11">
-        <v>2.1</v>
       </c>
       <c r="U11">
         <v>2.1</v>
@@ -1314,16 +1347,19 @@
         <v>2.1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>1.547368421052632</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1331,31 +1367,31 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1370,34 +1406,37 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="T12">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="U12">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="V12">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>6.071428571428571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1405,73 +1444,76 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.08581238395135493</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.66</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="T13">
         <v>4.75</v>
       </c>
       <c r="U13">
-        <v>1.66</v>
+        <v>6.5</v>
       </c>
       <c r="V13">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>1.245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1.144736842105263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1479,34 +1521,31 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>-0.998898409867353</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H14">
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J14">
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1515,40 +1554,43 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>2.15</v>
+        <v>-1</v>
       </c>
       <c r="S14">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="T14">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="U14">
-        <v>3.4</v>
+        <v>1.36</v>
       </c>
       <c r="V14">
-        <v>3.4</v>
+        <v>1.36</v>
       </c>
       <c r="W14">
-        <v>3.4</v>
+        <v>1.36</v>
       </c>
       <c r="X14">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1.100952380952381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,19 +1598,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.2928068635095924</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1577,52 +1619,55 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="U15">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="V15">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>1.252631578947368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1630,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>0.03316764943534345</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1645,58 +1690,61 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>3.5</v>
+        <v>1.72</v>
       </c>
       <c r="T16">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>2.62</v>
+        <v>4.5</v>
       </c>
       <c r="V16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1.871428571428572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1704,16 +1752,16 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.5696510998132425</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1722,55 +1770,58 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>4.33</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="T17">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>1.72</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>4.33</v>
+        <v>1.4</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1.300487804878049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1778,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>-1</v>
+        <v>-0.3883882120761202</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -1796,55 +1847,58 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J18">
         <v>-1</v>
       </c>
-      <c r="L18">
-        <v>0</v>
+      <c r="K18">
+        <v>-1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="S18">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="U18">
-        <v>4.75</v>
+        <v>1.66</v>
       </c>
       <c r="V18">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1.234358974358974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1852,73 +1906,76 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>-0.04810368120203545</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="T19">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="U19">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="V19">
-        <v>1.66</v>
+        <v>3.6</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>3.5625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1926,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>-1.137710036908078</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -1944,55 +2001,58 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J20">
         <v>-1</v>
       </c>
-      <c r="L20">
-        <v>0</v>
+      <c r="K20">
+        <v>-1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="S20">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="T20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="V20">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1.547368421052632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2000,22 +2060,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.06275444331155366</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2023,14 +2083,14 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="K21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2039,34 +2099,37 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>3.5</v>
+        <v>1.66</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="V21">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2074,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.009919407954329884</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2092,12 +2155,12 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="M22">
@@ -2113,34 +2176,37 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
         <v>1.66</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>4.33</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>4.5</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.66</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>4.33</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>1.27662817551963</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2148,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>-0.2969983981690216</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2171,14 +2237,14 @@
       <c r="J23">
         <v>-1</v>
       </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="K23">
+        <v>-1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2187,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R23">
+        <v>-1</v>
+      </c>
+      <c r="S23">
         <v>3.5</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3.8</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2205,16 +2271,19 @@
         <v>2</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>1.473684210526316</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2222,13 +2291,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>-0.3699735678088052</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -2240,13 +2309,13 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2261,34 +2330,37 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>2.5</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>3.5</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2.7</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2.5</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2.7</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>1.785714285714286</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2296,13 +2368,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>-0.5153121572146606</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -2319,8 +2391,8 @@
       <c r="J25">
         <v>-1</v>
       </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25">
+        <v>-1</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2335,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
         <v>7.5</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>5.25</v>
-      </c>
-      <c r="T25">
-        <v>1.36</v>
       </c>
       <c r="U25">
         <v>1.36</v>
@@ -2353,16 +2425,19 @@
         <v>1.36</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>1.100952380952381</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2370,13 +2445,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>-0.4848246418953135</v>
       </c>
       <c r="F26">
         <v>-1</v>
@@ -2388,13 +2463,13 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>-1</v>
       </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="K26">
+        <v>-1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2406,19 +2481,19 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R26">
+        <v>-1</v>
+      </c>
+      <c r="S26">
         <v>9</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>5.25</v>
-      </c>
-      <c r="T26">
-        <v>1.33</v>
       </c>
       <c r="U26">
         <v>1.33</v>
@@ -2427,16 +2502,19 @@
         <v>1.33</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>1.076666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2444,30 +2522,30 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.1018826799719861</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
         <v>0</v>
       </c>
       <c r="M27">
@@ -2483,34 +2561,37 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>-1</v>
+      </c>
+      <c r="S27">
         <v>1.65</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4</v>
-      </c>
-      <c r="T27">
-        <v>5</v>
       </c>
       <c r="U27">
         <v>5</v>
       </c>
       <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
         <v>4</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>3.75</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2518,13 +2599,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.6105299997718001</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2541,7 +2622,7 @@
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="K28">
         <v>1</v>
       </c>
       <c r="M28">
@@ -2560,31 +2641,34 @@
         <v>1</v>
       </c>
       <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
         <v>1.65</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4.2</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4.75</v>
-      </c>
-      <c r="U28">
-        <v>1.65</v>
       </c>
       <c r="V28">
         <v>1.65</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>1.257142857142857</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2592,13 +2676,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.6843980464757538</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2610,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2634,31 +2718,34 @@
         <v>0</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>1.3</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>5.75</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>9</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5.75</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.3</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2666,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.5386837308001047</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2689,7 +2776,7 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <v>1</v>
       </c>
       <c r="M30">
@@ -2708,31 +2795,34 @@
         <v>1</v>
       </c>
       <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
         <v>1.4</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>5</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>7.5</v>
-      </c>
-      <c r="U30">
-        <v>1.4</v>
       </c>
       <c r="V30">
         <v>1.4</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
         <v>1.12</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2740,13 +2830,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>-0.4825272322276728</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -2763,8 +2853,8 @@
       <c r="J31">
         <v>-1</v>
       </c>
-      <c r="L31">
-        <v>1</v>
+      <c r="K31">
+        <v>-1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2779,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R31">
+        <v>-1</v>
+      </c>
+      <c r="S31">
         <v>2.9</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3.25</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
       </c>
       <c r="U31">
         <v>2.5</v>
@@ -2797,16 +2887,19 @@
         <v>2.5</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
         <v>1.730769230769231</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2814,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.3293213346608166</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2832,13 +2925,13 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2856,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>3.9</v>
       </c>
       <c r="T32">
         <v>3.9</v>
@@ -2868,19 +2961,22 @@
         <v>3.9</v>
       </c>
       <c r="V32">
+        <v>3.9</v>
+      </c>
+      <c r="W32">
         <v>1.85</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2888,31 +2984,34 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>-0.2078350710645367</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2921,40 +3020,43 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>3.1</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>3.5</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2.2</v>
-      </c>
-      <c r="U33">
-        <v>3.5</v>
       </c>
       <c r="V33">
         <v>3.5</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+        <v>1.350877192982456</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2962,13 +3064,13 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.537982958862484</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2980,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3004,31 +3106,34 @@
         <v>0</v>
       </c>
       <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>1.6</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>3.9</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>5.75</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3.9</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1.6</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3036,34 +3141,34 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>-0.245805890784494</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3072,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3081,31 +3186,34 @@
         <v>0</v>
       </c>
       <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>2.3</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3.4</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3.1</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3.4</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>3.1</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3.4</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1.621538461538461</v>
       </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3113,13 +3221,13 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>-0.7590669241882209</v>
       </c>
       <c r="F36">
         <v>-1</v>
@@ -3131,13 +3239,13 @@
         <v>-1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3155,31 +3263,34 @@
         <v>0</v>
       </c>
       <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>2.4</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>3.5</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>2.87</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>3.5</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2.87</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3187,13 +3298,13 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>-0.4356357815404834</v>
       </c>
       <c r="F37">
         <v>-1</v>
@@ -3205,13 +3316,13 @@
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3229,31 +3340,34 @@
         <v>0</v>
       </c>
       <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>7.5</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>4.75</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1.4</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>4.75</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>1.4</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3261,13 +3375,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>-0.0457981680639028</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3279,12 +3393,12 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="K38">
         <v>0</v>
       </c>
       <c r="M38">
@@ -3300,34 +3414,37 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
         <v>2.2</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>3.5</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>3.2</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>2.2</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>3.5</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
         <v>1.571428571428571</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3335,13 +3452,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
       <c r="E39">
-        <v>-1</v>
+        <v>-0.6065330154969484</v>
       </c>
       <c r="F39">
         <v>-1</v>
@@ -3353,13 +3470,13 @@
         <v>-1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3377,31 +3494,34 @@
         <v>0</v>
       </c>
       <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>4.5</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>3.8</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>1.75</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>3.8</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>1.75</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3409,13 +3529,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.5092847987403522</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3432,7 +3552,7 @@
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="L40">
+      <c r="K40">
         <v>1</v>
       </c>
       <c r="M40">
@@ -3451,31 +3571,34 @@
         <v>1</v>
       </c>
       <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
         <v>1.4</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>5</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>6.5</v>
-      </c>
-      <c r="U40">
-        <v>1.4</v>
       </c>
       <c r="V40">
         <v>1.4</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
         <v>1.12</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3483,13 +3606,13 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.4917666428703953</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3501,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3522,34 +3645,37 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41">
+        <v>-1</v>
+      </c>
+      <c r="S41">
         <v>2.15</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>3.5</v>
-      </c>
-      <c r="T41">
-        <v>3.2</v>
       </c>
       <c r="U41">
         <v>3.2</v>
       </c>
       <c r="V41">
+        <v>3.2</v>
+      </c>
+      <c r="W41">
         <v>2.15</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
       <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>2.285714285714286</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:26">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3557,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>-1</v>
+        <v>-0.3701602470465888</v>
       </c>
       <c r="F42">
         <v>-1</v>
@@ -3575,13 +3701,13 @@
         <v>-1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J42">
-        <v>-1</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3596,34 +3722,37 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
         <v>2.25</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>3.75</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>2.9</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>2.25</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>2.9</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
       <c r="X42">
         <v>0</v>
       </c>
       <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
         <v>1.65</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:26">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3631,22 +3760,22 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03072349359968385</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3654,14 +3783,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>1</v>
+      <c r="K43">
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -3670,34 +3799,37 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>2.6</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>3.5</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>2.6</v>
-      </c>
-      <c r="U43">
-        <v>3.5</v>
       </c>
       <c r="V43">
         <v>3.5</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3705,13 +3837,13 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>-0.1703468088984001</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3723,12 +3855,12 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="K44">
         <v>0</v>
       </c>
       <c r="M44">
@@ -3744,34 +3876,37 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
         <v>1.83</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>3.7</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>4.33</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>1.83</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>3.7</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
         <v>1.335405405405406</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:26">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3779,13 +3914,13 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>-0.3158987515371052</v>
       </c>
       <c r="F45">
         <v>-1</v>
@@ -3797,13 +3932,13 @@
         <v>-1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J45">
-        <v>-1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3821,31 +3956,34 @@
         <v>0</v>
       </c>
       <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
         <v>3</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>3.4</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>2.37</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>3.4</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>2.37</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3853,13 +3991,13 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <v>-1</v>
+        <v>-0.3825318206701986</v>
       </c>
       <c r="F46">
         <v>-1</v>
@@ -3871,13 +4009,13 @@
         <v>-1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46">
-        <v>-1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>-1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3895,31 +4033,34 @@
         <v>0</v>
       </c>
       <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>2.1</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>3.5</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>3.4</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>3.5</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>3.4</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
       <c r="X46">
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3927,13 +4068,13 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>-0.2247294094740537</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3945,12 +4086,12 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="K47">
         <v>0</v>
       </c>
       <c r="M47">
@@ -3966,34 +4107,37 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
         <v>2.3</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>3.4</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>3.1</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>2.3</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>3.4</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
         <v>1.623529411764706</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:26">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4001,13 +4145,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.6322357804431409</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4024,7 +4168,7 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="L48">
+      <c r="K48">
         <v>1</v>
       </c>
       <c r="M48">
@@ -4043,31 +4187,34 @@
         <v>1</v>
       </c>
       <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
         <v>1.22</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>6.5</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>12</v>
-      </c>
-      <c r="U48">
-        <v>1.22</v>
       </c>
       <c r="V48">
         <v>1.22</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
         <v>1.032307692307692</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:26">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4075,13 +4222,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E49">
-        <v>-1</v>
+        <v>-0.5749461507497893</v>
       </c>
       <c r="F49">
         <v>-1</v>
@@ -4098,8 +4245,8 @@
       <c r="J49">
         <v>-1</v>
       </c>
-      <c r="L49">
-        <v>1</v>
+      <c r="K49">
+        <v>-1</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -4114,16 +4261,16 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R49">
+        <v>-1</v>
+      </c>
+      <c r="S49">
         <v>8.5</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>5.25</v>
-      </c>
-      <c r="T49">
-        <v>1.33</v>
       </c>
       <c r="U49">
         <v>1.33</v>
@@ -4132,16 +4279,19 @@
         <v>1.33</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
         <v>1.076666666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:26">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4149,35 +4299,32 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>-1</v>
+        <v>-0.195567356615987</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
       <c r="M50">
         <v>0</v>
       </c>
@@ -4191,34 +4338,37 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
         <v>2.87</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>3.4</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>2.45</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>2.87</v>
-      </c>
-      <c r="V50">
-        <v>2.45</v>
       </c>
       <c r="W50">
         <v>3.4</v>
       </c>
       <c r="X50">
-        <v>1.423931623931624</v>
+        <v>0</v>
       </c>
       <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
         <v>2.025882352941176</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:26">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4226,13 +4376,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>-0.05702158403671742</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4244,12 +4394,12 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="K51">
         <v>0</v>
       </c>
       <c r="M51">
@@ -4265,34 +4415,37 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R51">
+        <v>-1</v>
+      </c>
+      <c r="S51">
         <v>3.6</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>4</v>
-      </c>
-      <c r="T51">
-        <v>1.9</v>
       </c>
       <c r="U51">
         <v>1.9</v>
       </c>
       <c r="V51">
+        <v>1.9</v>
+      </c>
+      <c r="W51">
         <v>4</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>1.425</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:26">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4300,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>-1</v>
+        <v>-0.3647604517898868</v>
       </c>
       <c r="F52">
         <v>-1</v>
@@ -4318,13 +4471,13 @@
         <v>-1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J52">
-        <v>-1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4342,31 +4495,34 @@
         <v>0</v>
       </c>
       <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
         <v>5</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>4.2</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>1.61</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>4.2</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>1.61</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4374,13 +4530,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>-0.03369404152937605</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4392,12 +4548,12 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="K53">
         <v>0</v>
       </c>
       <c r="M53">
@@ -4413,34 +4569,37 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
         <v>2.62</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>3.4</v>
-      </c>
-      <c r="T53">
-        <v>2.62</v>
       </c>
       <c r="U53">
         <v>2.62</v>
       </c>
       <c r="V53">
+        <v>2.62</v>
+      </c>
+      <c r="W53">
         <v>3.4</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
         <v>1.849411764705883</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:26">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4448,19 +4607,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.2807336018170208</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -4471,17 +4630,17 @@
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="L54">
+      <c r="K54">
         <v>1</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -4490,31 +4649,34 @@
         <v>1</v>
       </c>
       <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
         <v>1.28</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>5.75</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>10</v>
-      </c>
-      <c r="U54">
-        <v>1.28</v>
       </c>
       <c r="V54">
         <v>1.28</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
         <v>1.057391304347826</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:26">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4522,13 +4684,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.6495153864299912</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4540,13 +4702,13 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -4561,34 +4723,37 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>-1</v>
+      </c>
+      <c r="S55">
         <v>1.3</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>5.5</v>
-      </c>
-      <c r="T55">
-        <v>9</v>
       </c>
       <c r="U55">
         <v>9</v>
       </c>
       <c r="V55">
+        <v>9</v>
+      </c>
+      <c r="W55">
         <v>1.3</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
         <v>7.363636363636363</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:26">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4596,30 +4761,30 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.02082559028758268</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
         <v>0</v>
       </c>
       <c r="M56">
@@ -4635,34 +4800,37 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R56">
+        <v>-1</v>
+      </c>
+      <c r="S56">
         <v>2.15</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>3.5</v>
-      </c>
-      <c r="T56">
-        <v>3.3</v>
       </c>
       <c r="U56">
         <v>3.3</v>
       </c>
       <c r="V56">
+        <v>3.3</v>
+      </c>
+      <c r="W56">
         <v>3.5</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
       <c r="X56">
         <v>0</v>
       </c>
       <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
         <v>2.357142857142857</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:26">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4670,13 +4838,13 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>-1</v>
+        <v>-0.44589842784199</v>
       </c>
       <c r="F57">
         <v>-1</v>
@@ -4693,8 +4861,8 @@
       <c r="J57">
         <v>-1</v>
       </c>
-      <c r="L57">
-        <v>1</v>
+      <c r="K57">
+        <v>-1</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -4709,16 +4877,16 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R57">
+        <v>-1</v>
+      </c>
+      <c r="S57">
         <v>6</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>4</v>
-      </c>
-      <c r="T57">
-        <v>1.57</v>
       </c>
       <c r="U57">
         <v>1.57</v>
@@ -4727,16 +4895,19 @@
         <v>1.57</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
         <v>1.1775</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:26">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4744,31 +4915,31 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.02049764800363452</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4777,43 +4948,46 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <v>1</v>
       </c>
       <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
         <v>2.2</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>3.75</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>3</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>2.2</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>3.75</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>2.2</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>1.386554621848739</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>1.613333333333334</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:26">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4821,13 +4995,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.3497973202080207</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4839,13 +5013,13 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4860,34 +5034,37 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R59">
+        <v>-1</v>
+      </c>
+      <c r="S59">
         <v>1.85</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>3.4</v>
-      </c>
-      <c r="T59">
-        <v>4.5</v>
       </c>
       <c r="U59">
         <v>4.5</v>
       </c>
       <c r="V59">
+        <v>4.5</v>
+      </c>
+      <c r="W59">
         <v>1.85</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
       <c r="X59">
         <v>0</v>
       </c>
       <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
         <v>3.176470588235294</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:26">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4895,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0.3027787410874172</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4913,13 +5090,13 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4937,31 +5114,34 @@
         <v>0</v>
       </c>
       <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
         <v>1.36</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>5.25</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>8</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>5.25</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>1.36</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4969,22 +5149,22 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E61">
-        <v>-1</v>
+        <v>-0.1898326333743787</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>-1</v>
@@ -4993,34 +5173,34 @@
         <v>-1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R61">
+        <v>-1</v>
+      </c>
+      <c r="S61">
         <v>2.6</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>3.6</v>
-      </c>
-      <c r="T61">
-        <v>2.6</v>
       </c>
       <c r="U61">
         <v>2.6</v>
@@ -5029,16 +5209,19 @@
         <v>2.6</v>
       </c>
       <c r="W61">
+        <v>2.6</v>
+      </c>
+      <c r="X61">
         <v>3.6</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>1.509677419354839</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>1.877777777777778</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:26">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5046,37 +5229,37 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06738345849573246</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="K62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -5085,34 +5268,37 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
         <v>1.5</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>4.5</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>5.5</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>1.5</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>4.5</v>
       </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
       <c r="X62">
         <v>0</v>
       </c>
       <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
         <v>1.166666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:26">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5120,13 +5306,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-0.07663770875562381</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5143,8 +5329,8 @@
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>1</v>
+      <c r="K63">
+        <v>0</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5159,13 +5345,13 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
         <v>2.1</v>
-      </c>
-      <c r="S63">
-        <v>3.4</v>
       </c>
       <c r="T63">
         <v>3.4</v>
@@ -5177,16 +5363,19 @@
         <v>3.4</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5194,13 +5383,13 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.5840584117245271</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -5217,7 +5406,7 @@
       <c r="J64">
         <v>1</v>
       </c>
-      <c r="L64">
+      <c r="K64">
         <v>1</v>
       </c>
       <c r="M64">
@@ -5236,31 +5425,34 @@
         <v>1</v>
       </c>
       <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
         <v>1.2</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>7</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>12</v>
-      </c>
-      <c r="U64">
-        <v>1.2</v>
       </c>
       <c r="V64">
         <v>1.2</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X64">
         <v>0</v>
       </c>
       <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
         <v>1.028571428571428</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:26">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5268,13 +5460,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>-0.3141224539157825</v>
       </c>
       <c r="F65">
         <v>-1</v>
@@ -5291,8 +5483,8 @@
       <c r="J65">
         <v>-1</v>
       </c>
-      <c r="L65">
-        <v>1</v>
+      <c r="K65">
+        <v>-1</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -5307,16 +5499,16 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R65">
+        <v>-1</v>
+      </c>
+      <c r="S65">
         <v>7</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>4.33</v>
-      </c>
-      <c r="T65">
-        <v>1.45</v>
       </c>
       <c r="U65">
         <v>1.45</v>
@@ -5325,16 +5517,19 @@
         <v>1.45</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
         <v>1.115127020785219</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:26">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5342,13 +5537,13 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66">
-        <v>-1</v>
+        <v>-0.4194369459759075</v>
       </c>
       <c r="F66">
         <v>-1</v>
@@ -5357,16 +5552,16 @@
         <v>-1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J66">
-        <v>-1</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>-1</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5375,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -5384,31 +5579,34 @@
         <v>0</v>
       </c>
       <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
         <v>5.25</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>4</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>1.61</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>4</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>1.61</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5416,37 +5614,37 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.08392516150040841</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="K67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -5455,34 +5653,37 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
         <v>1.4</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>4.5</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>7.5</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>1.4</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>4.5</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
       <c r="X67">
         <v>0</v>
       </c>
       <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
         <v>1.088888888888889</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:26">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5490,13 +5691,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>-1</v>
+        <v>-0.4667435992552802</v>
       </c>
       <c r="F68">
         <v>-1</v>
@@ -5513,8 +5714,8 @@
       <c r="J68">
         <v>-1</v>
       </c>
-      <c r="L68">
-        <v>1</v>
+      <c r="K68">
+        <v>-1</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -5529,16 +5730,16 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R68">
+        <v>-1</v>
+      </c>
+      <c r="S68">
         <v>5.25</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>4.2</v>
-      </c>
-      <c r="T68">
-        <v>1.57</v>
       </c>
       <c r="U68">
         <v>1.57</v>
@@ -5547,16 +5748,19 @@
         <v>1.57</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X68">
         <v>0</v>
       </c>
       <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
         <v>1.196190476190476</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:26">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5564,22 +5768,22 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
         <v>43</v>
       </c>
-      <c r="D69" t="s">
-        <v>42</v>
-      </c>
       <c r="E69">
-        <v>-1</v>
+        <v>-0.2391657015438575</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>-1</v>
@@ -5588,13 +5792,10 @@
         <v>-1</v>
       </c>
       <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -5606,16 +5807,16 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R69">
+        <v>-1</v>
+      </c>
+      <c r="S69">
         <v>2.75</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>3.2</v>
-      </c>
-      <c r="T69">
-        <v>2.6</v>
       </c>
       <c r="U69">
         <v>2.6</v>
@@ -5624,16 +5825,19 @@
         <v>2.6</v>
       </c>
       <c r="W69">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="X69">
-        <v>1.43448275862069</v>
+        <v>0</v>
       </c>
       <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <v>1.7875</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:26">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5641,19 +5845,19 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.1536687674757209</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -5664,17 +5868,17 @@
       <c r="J70">
         <v>1</v>
       </c>
-      <c r="L70">
+      <c r="K70">
         <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -5683,31 +5887,34 @@
         <v>1</v>
       </c>
       <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
         <v>1.45</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>4.75</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>6</v>
-      </c>
-      <c r="U70">
-        <v>1.45</v>
       </c>
       <c r="V70">
         <v>1.45</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
         <v>1.144736842105263</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:26">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5715,13 +5922,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E71">
-        <v>-1</v>
+        <v>-0.3404405090755178</v>
       </c>
       <c r="F71">
         <v>-1</v>
@@ -5738,8 +5945,8 @@
       <c r="J71">
         <v>-1</v>
       </c>
-      <c r="L71">
-        <v>1</v>
+      <c r="K71">
+        <v>-1</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -5754,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R71">
+        <v>-1</v>
+      </c>
+      <c r="S71">
         <v>2.9</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>3.4</v>
-      </c>
-      <c r="T71">
-        <v>2.37</v>
       </c>
       <c r="U71">
         <v>2.37</v>
@@ -5772,16 +5979,19 @@
         <v>2.37</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="X71">
         <v>0</v>
       </c>
       <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
         <v>1.672941176470588</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:26">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5789,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0.7347454801599786</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -5812,7 +6022,7 @@
       <c r="J72">
         <v>1</v>
       </c>
-      <c r="L72">
+      <c r="K72">
         <v>1</v>
       </c>
       <c r="M72">
@@ -5831,31 +6041,34 @@
         <v>1</v>
       </c>
       <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
         <v>1.25</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>6.5</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>10</v>
-      </c>
-      <c r="U72">
-        <v>1.25</v>
       </c>
       <c r="V72">
         <v>1.25</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
         <v>1.057692307692308</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:26">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5863,37 +6076,34 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73">
-        <v>-1</v>
+        <v>-0.2547716680629648</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -5908,31 +6118,34 @@
         <v>0</v>
       </c>
       <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
         <v>2.6</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>3.3</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>2.62</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>3.3</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>2.62</v>
       </c>
-      <c r="W73">
-        <v>3.3</v>
-      </c>
       <c r="X73">
-        <v>1.460472972972973</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5940,13 +6153,13 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E74">
-        <v>-1</v>
+        <v>-0.3519226779708848</v>
       </c>
       <c r="F74">
         <v>-1</v>
@@ -5963,8 +6176,8 @@
       <c r="J74">
         <v>-1</v>
       </c>
-      <c r="L74">
-        <v>1</v>
+      <c r="K74">
+        <v>-1</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -5979,16 +6192,16 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R74">
+        <v>-1</v>
+      </c>
+      <c r="S74">
         <v>7</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>5</v>
-      </c>
-      <c r="T74">
-        <v>1.4</v>
       </c>
       <c r="U74">
         <v>1.4</v>
@@ -5997,16 +6210,19 @@
         <v>1.4</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
         <v>1.12</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:26">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6014,30 +6230,30 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>-0.2045434832085187</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="L75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
         <v>0</v>
       </c>
       <c r="M75">
@@ -6047,40 +6263,43 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R75">
+        <v>-1</v>
+      </c>
+      <c r="S75">
         <v>2.4</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>3.4</v>
-      </c>
-      <c r="T75">
-        <v>2.87</v>
       </c>
       <c r="U75">
         <v>2.87</v>
       </c>
       <c r="V75">
+        <v>2.87</v>
+      </c>
+      <c r="W75">
         <v>3.4</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
       <c r="X75">
         <v>0</v>
       </c>
       <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
         <v>2.025882352941176</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:26">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6088,19 +6307,19 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.2377841185435345</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -6111,17 +6330,17 @@
       <c r="J76">
         <v>1</v>
       </c>
-      <c r="L76">
+      <c r="K76">
         <v>1</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -6130,31 +6349,34 @@
         <v>1</v>
       </c>
       <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
         <v>1.72</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>3.8</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>4.2</v>
-      </c>
-      <c r="U76">
-        <v>1.72</v>
       </c>
       <c r="V76">
         <v>1.72</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
         <v>1.267368421052632</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:26">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6162,19 +6384,19 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
         <v>39</v>
       </c>
-      <c r="D77" t="s">
-        <v>38</v>
-      </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.1422201029894516</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -6185,17 +6407,17 @@
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="L77">
+      <c r="K77">
         <v>1</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -6204,31 +6426,34 @@
         <v>1</v>
       </c>
       <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
         <v>1.75</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>3.6</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>4.75</v>
-      </c>
-      <c r="U77">
-        <v>1.75</v>
       </c>
       <c r="V77">
         <v>1.75</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X77">
         <v>0</v>
       </c>
       <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
         <v>1.263888888888889</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:26">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6236,13 +6461,13 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78">
-        <v>-1</v>
+        <v>-0.5931397046875428</v>
       </c>
       <c r="F78">
         <v>-1</v>
@@ -6254,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J78">
-        <v>-1</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>-1</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6275,34 +6500,37 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
         <v>6</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>4.2</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>1.5</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>6</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>1.5</v>
       </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
       <c r="X78">
         <v>0</v>
       </c>
       <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
         <v>4.571428571428572</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:26">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6310,22 +6538,22 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>-1</v>
+        <v>-0.07014762351111514</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>-1</v>
@@ -6334,34 +6562,34 @@
         <v>-1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R79">
+        <v>-1</v>
+      </c>
+      <c r="S79">
         <v>3.1</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>3.4</v>
-      </c>
-      <c r="T79">
-        <v>2.25</v>
       </c>
       <c r="U79">
         <v>2.25</v>
@@ -6370,16 +6598,19 @@
         <v>2.25</v>
       </c>
       <c r="W79">
+        <v>2.25</v>
+      </c>
+      <c r="X79">
         <v>3.4</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>1.353982300884956</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>1.588235294117647</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:26">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6387,13 +6618,13 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.4448465677969757</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6405,13 +6636,13 @@
         <v>1</v>
       </c>
       <c r="I80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -6426,34 +6657,37 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R80">
+        <v>-1</v>
+      </c>
+      <c r="S80">
         <v>1.2</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>7</v>
-      </c>
-      <c r="T80">
-        <v>15</v>
       </c>
       <c r="U80">
         <v>15</v>
       </c>
       <c r="V80">
+        <v>15</v>
+      </c>
+      <c r="W80">
         <v>1.2</v>
       </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
       <c r="X80">
         <v>0</v>
       </c>
       <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
         <v>12.85714285714286</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:26">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6461,13 +6695,13 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-0.08673264751057186</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6484,8 +6718,8 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="L81">
-        <v>1</v>
+      <c r="K81">
+        <v>0</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -6500,34 +6734,37 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
         <v>2.5</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>3.3</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>2.75</v>
-      </c>
-      <c r="U81">
-        <v>3.3</v>
       </c>
       <c r="V81">
         <v>3.3</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6535,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E82">
-        <v>-1</v>
+        <v>-0.5505792682110284</v>
       </c>
       <c r="F82">
         <v>-1</v>
@@ -6558,8 +6795,8 @@
       <c r="J82">
         <v>-1</v>
       </c>
-      <c r="L82">
-        <v>1</v>
+      <c r="K82">
+        <v>-1</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -6574,16 +6811,16 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R82">
+        <v>-1</v>
+      </c>
+      <c r="S82">
         <v>7</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>4.75</v>
-      </c>
-      <c r="T82">
-        <v>1.4</v>
       </c>
       <c r="U82">
         <v>1.4</v>
@@ -6592,16 +6829,19 @@
         <v>1.4</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X82">
         <v>0</v>
       </c>
       <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
         <v>1.105263157894737</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:26">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6609,31 +6849,31 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E83">
-        <v>-1</v>
+        <v>-0.136407810836495</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6651,34 +6891,37 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
         <v>3</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>3.4</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>2.35</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>3</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>2.35</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>3.4</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>1.389565217391304</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>2.117647058823529</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:26">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6686,13 +6929,13 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-0.08334718604056235</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6704,12 +6947,12 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="K84">
         <v>0</v>
       </c>
       <c r="M84">
@@ -6725,34 +6968,37 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
         <v>1.75</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>3.75</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>4.6</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>1.75</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>3.75</v>
       </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
       <c r="X84">
         <v>0</v>
       </c>
       <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
         <v>1.283333333333333</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:26">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6760,37 +7006,37 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.06732463856348403</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="K85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -6799,34 +7045,37 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
         <v>1.75</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>3.9</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>4.33</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>1.75</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>3.9</v>
       </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
       <c r="X85">
         <v>0</v>
       </c>
       <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
         <v>1.301282051282051</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:26">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6834,19 +7083,19 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.05506942128562464</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -6855,52 +7104,55 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="K86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
         <v>2.87</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>3.6</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>2.37</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>3.6</v>
       </c>
-      <c r="V86">
-        <v>2.87</v>
-      </c>
       <c r="W86">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X86">
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6908,19 +7160,19 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0.2768266509684283</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -6931,17 +7183,17 @@
       <c r="J87">
         <v>1</v>
       </c>
-      <c r="L87">
+      <c r="K87">
         <v>1</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -6950,31 +7202,34 @@
         <v>1</v>
       </c>
       <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
         <v>1.3</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>5.5</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>9.5</v>
-      </c>
-      <c r="U87">
-        <v>1.3</v>
       </c>
       <c r="V87">
         <v>1.3</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X87">
         <v>0</v>
       </c>
       <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
         <v>1.063636363636364</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:26">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6982,13 +7237,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88">
-        <v>-1</v>
+        <v>-0.6444467802524647</v>
       </c>
       <c r="F88">
         <v>-1</v>
@@ -7005,8 +7260,8 @@
       <c r="J88">
         <v>-1</v>
       </c>
-      <c r="L88">
-        <v>1</v>
+      <c r="K88">
+        <v>-1</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -7021,16 +7276,16 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R88">
+        <v>-1</v>
+      </c>
+      <c r="S88">
         <v>5.5</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>4.2</v>
-      </c>
-      <c r="T88">
-        <v>1.57</v>
       </c>
       <c r="U88">
         <v>1.57</v>
@@ -7039,16 +7294,19 @@
         <v>1.57</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X88">
         <v>0</v>
       </c>
       <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
         <v>1.196190476190476</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:26">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7056,19 +7314,19 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0.150611319771695</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -7079,17 +7337,17 @@
       <c r="J89">
         <v>1</v>
       </c>
-      <c r="L89">
+      <c r="K89">
         <v>1</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89">
         <v>1</v>
@@ -7098,31 +7356,34 @@
         <v>1</v>
       </c>
       <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
         <v>1.61</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>3.9</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>5.5</v>
-      </c>
-      <c r="U89">
-        <v>1.61</v>
       </c>
       <c r="V89">
         <v>1.61</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
         <v>1.197179487179487</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:26">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7130,13 +7391,13 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-0.02069992258320319</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -7148,12 +7409,12 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="L90">
+        <v>-1</v>
+      </c>
+      <c r="K90">
         <v>0</v>
       </c>
       <c r="M90">
@@ -7169,34 +7430,37 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R90">
+        <v>-1</v>
+      </c>
+      <c r="S90">
         <v>4</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>3.8</v>
-      </c>
-      <c r="T90">
-        <v>1.85</v>
       </c>
       <c r="U90">
         <v>1.85</v>
       </c>
       <c r="V90">
+        <v>1.85</v>
+      </c>
+      <c r="W90">
         <v>3.8</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
       <c r="X90">
         <v>0</v>
       </c>
       <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
         <v>1.363157894736842</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:26">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7204,13 +7468,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>-1</v>
+        <v>-0.4831402425355753</v>
       </c>
       <c r="F91">
         <v>-1</v>
@@ -7222,13 +7486,13 @@
         <v>-1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J91">
-        <v>-1</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>-1</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -7243,34 +7507,37 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
         <v>3.1</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>3.4</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>2.3</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>3.1</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>2.3</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
       <c r="X91">
         <v>0</v>
       </c>
       <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
         <v>2.188235294117647</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:26">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7278,13 +7545,13 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0.4256892552565255</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -7293,16 +7560,16 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -7311,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -7320,31 +7587,34 @@
         <v>0</v>
       </c>
       <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
         <v>1.2</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>7</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>13</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>7</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>1.2</v>
       </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
       <c r="X92">
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7352,13 +7622,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>-0.122544661702606</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7370,12 +7640,12 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="K93">
         <v>0</v>
       </c>
       <c r="M93">
@@ -7391,34 +7661,37 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
         <v>2.3</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>3.3</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>3.1</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>2.3</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>3.3</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
       <c r="X93">
         <v>0</v>
       </c>
       <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
         <v>1.603030303030303</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:26">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7426,31 +7699,31 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E94">
-        <v>-1</v>
+        <v>-0.2295826302953223</v>
       </c>
       <c r="F94">
         <v>-1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J94">
-        <v>-1</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>-1</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -7465,34 +7738,37 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
         <v>2.75</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>3.5</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>2.4</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>2.75</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>2.4</v>
       </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
       <c r="X94">
         <v>0</v>
       </c>
       <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
         <v>1.964285714285714</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:26">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7500,13 +7776,13 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E95">
-        <v>-1</v>
+        <v>-0.577362056028444</v>
       </c>
       <c r="F95">
         <v>-1</v>
@@ -7523,8 +7799,8 @@
       <c r="J95">
         <v>-1</v>
       </c>
-      <c r="L95">
-        <v>1</v>
+      <c r="K95">
+        <v>-1</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -7539,16 +7815,16 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R95">
+        <v>-1</v>
+      </c>
+      <c r="S95">
         <v>5.75</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>4.75</v>
-      </c>
-      <c r="T95">
-        <v>1.5</v>
       </c>
       <c r="U95">
         <v>1.5</v>
@@ -7557,16 +7833,19 @@
         <v>1.5</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
         <v>1.184210526315789</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:26">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7574,37 +7853,37 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.07342046380142975</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="K96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -7613,34 +7892,37 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
         <v>1.53</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>4.33</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>5.75</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>1.53</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>4.33</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
       <c r="X96">
         <v>0</v>
       </c>
       <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
         <v>1.176651270207852</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:26">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7648,16 +7930,16 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>-1</v>
+        <v>-0.1819766559658387</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7666,10 +7948,13 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>-1</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -7687,34 +7972,37 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
         <v>2.4</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <v>3.5</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>2.8</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>2.4</v>
       </c>
-      <c r="V97">
+      <c r="W97">
+        <v>2.8</v>
+      </c>
+      <c r="X97">
         <v>3.5</v>
       </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
       <c r="Y97">
+        <v>1.555555555555555</v>
+      </c>
+      <c r="Z97">
         <v>1.714285714285714</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:26">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7722,30 +8010,30 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E98">
-        <v>-1</v>
+        <v>-0.08364364539012659</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="K98">
         <v>0</v>
       </c>
       <c r="M98">
@@ -7755,40 +8043,43 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
         <v>2.8</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <v>3.6</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>2.37</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>2.8</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>3.6</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
       <c r="X98">
         <v>0</v>
       </c>
       <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
         <v>2.022222222222222</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:26">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7796,13 +8087,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.4983428162991457</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -7814,13 +8105,13 @@
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -7838,31 +8129,34 @@
         <v>0</v>
       </c>
       <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
         <v>1.66</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <v>4.3</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>4.5</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>4.3</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>1.66</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
       <c r="X99">
         <v>0</v>
       </c>
       <c r="Y99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7870,19 +8164,19 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0.1817977229666425</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -7893,17 +8187,17 @@
       <c r="J100">
         <v>1</v>
       </c>
-      <c r="L100">
+      <c r="K100">
         <v>1</v>
       </c>
       <c r="M100">
         <v>1</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -7912,31 +8206,34 @@
         <v>1</v>
       </c>
       <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
         <v>2.9</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <v>3.3</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2.9</v>
       </c>
       <c r="V100">
         <v>2.9</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="X100">
         <v>0</v>
       </c>
       <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
         <v>2.021212121212121</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:26">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7944,31 +8241,31 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0.2964956678533017</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -7977,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -7986,27 +8283,30 @@
         <v>0</v>
       </c>
       <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
         <v>2</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <v>3.5</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>3.75</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>3.5</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>2</v>
       </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
       <c r="X101">
         <v>0</v>
       </c>
       <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
         <v>1</v>
       </c>
     </row>
